--- a/Results/Baseline/EoL-RIR/EoL-RIR_base_Photovoltaic plants.xlsx
+++ b/Results/Baseline/EoL-RIR/EoL-RIR_base_Photovoltaic plants.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="RR_full" sheetId="1" r:id="rId1"/>
-    <sheet name="RR_target" sheetId="2" r:id="rId2"/>
-    <sheet name="RR_hist" sheetId="3" r:id="rId3"/>
+    <sheet name="RR_hist" sheetId="1" r:id="rId1"/>
+    <sheet name="RR_full" sheetId="2" r:id="rId2"/>
+    <sheet name="RR_target" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -30,7 +30,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -1234,274 +1234,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>8.650929082331365E-05</v>
+        <v>8.633178012567886E-10</v>
       </c>
       <c r="E4">
-        <v>0.0002621120746828862</v>
+        <v>1.149118105579343E-08</v>
       </c>
       <c r="F4">
-        <v>0.001008626135043447</v>
+        <v>1.666384038294169E-07</v>
       </c>
       <c r="G4">
-        <v>0.002981479683886955</v>
+        <v>1.629279796313578E-06</v>
       </c>
       <c r="H4">
-        <v>0.004702433902982721</v>
+        <v>7.633268186593329E-06</v>
       </c>
       <c r="I4">
-        <v>0.01132749903256876</v>
+        <v>5.012895659478855E-05</v>
       </c>
       <c r="J4">
-        <v>0.02333098826874915</v>
+        <v>0.0002630259561808717</v>
       </c>
       <c r="K4">
-        <v>0.03026457310284855</v>
+        <v>0.0008229586497523678</v>
       </c>
       <c r="L4">
-        <v>0.02472720336473587</v>
+        <v>0.001548673592445485</v>
       </c>
       <c r="M4">
-        <v>0.04289276230788085</v>
+        <v>0.005927795295001914</v>
       </c>
       <c r="N4">
-        <v>0.05128928811622219</v>
+        <v>0.01490273608463072</v>
       </c>
       <c r="O4">
-        <v>0.05180969501527131</v>
+        <v>0.02941983455515225</v>
       </c>
       <c r="P4">
-        <v>0.01162925311323451</v>
+        <v>0.01123931191424439</v>
       </c>
       <c r="Q4">
-        <v>0.01566007517085646</v>
+        <v>0.01976465511809605</v>
       </c>
       <c r="R4">
-        <v>0.02058178599901378</v>
+        <v>0.02341443940910572</v>
       </c>
       <c r="S4">
-        <v>0.008468915518767084</v>
+        <v>0.007071500280386613</v>
       </c>
       <c r="T4">
-        <v>0.01069618002862788</v>
+        <v>0.007035089546493973</v>
       </c>
       <c r="U4">
-        <v>0.01323405936530332</v>
+        <v>0.007432098346895968</v>
       </c>
       <c r="V4">
-        <v>0.01605573049091116</v>
+        <v>0.007873323726939314</v>
       </c>
       <c r="W4">
-        <v>0.01912237150075455</v>
+        <v>0.008194877770735283</v>
       </c>
       <c r="X4">
-        <v>0.0234217907321634</v>
+        <v>0.008913989890557368</v>
       </c>
       <c r="Y4">
-        <v>0.02701312826227353</v>
+        <v>0.009571333787137482</v>
       </c>
       <c r="Z4">
-        <v>0.03077565147366224</v>
+        <v>0.009581142328448483</v>
       </c>
       <c r="AA4">
-        <v>0.03476157765922337</v>
+        <v>0.00940267478037189</v>
       </c>
       <c r="AB4">
-        <v>0.03911022365458807</v>
+        <v>0.009540317530349755</v>
       </c>
       <c r="AC4">
-        <v>0.2159027593516086</v>
+        <v>0.04666057311999727</v>
       </c>
       <c r="AD4">
-        <v>0.2382385269188516</v>
+        <v>0.04680047842238869</v>
       </c>
       <c r="AE4">
-        <v>0.2645977850936058</v>
+        <v>0.04647777708710914</v>
       </c>
       <c r="AF4">
-        <v>0.2959935491973857</v>
+        <v>0.04310488720008291</v>
       </c>
       <c r="AG4">
-        <v>0.3327517495419071</v>
+        <v>0.03719721843130173</v>
       </c>
       <c r="AH4">
-        <v>0.8339456719220157</v>
+        <v>0.06961359526846515</v>
       </c>
       <c r="AI4">
-        <v>0.8357554968765533</v>
+        <v>0.05937686449780247</v>
       </c>
       <c r="AJ4">
-        <v>0.837256459017959</v>
+        <v>0.05951510110306168</v>
       </c>
       <c r="AK4">
-        <v>0.8384616088157968</v>
+        <v>0.07078741998909063</v>
       </c>
       <c r="AL4">
-        <v>0.8394076489880427</v>
+        <v>0.09203218079454889</v>
       </c>
       <c r="AM4">
-        <v>0.8401396237418683</v>
+        <v>0.1147154698031943</v>
       </c>
       <c r="AN4">
-        <v>0.8407017293655703</v>
+        <v>0.1323034005054911</v>
       </c>
       <c r="AO4">
-        <v>0.8411297522630097</v>
+        <v>0.1569795641989346</v>
       </c>
       <c r="AP4">
-        <v>0.8414528245327221</v>
+        <v>0.1858676962515513</v>
       </c>
       <c r="AQ4">
-        <v>0.8416947893861172</v>
+        <v>0.188066797786966</v>
       </c>
       <c r="AR4">
-        <v>0.8418704219449187</v>
+        <v>0.1729323720882141</v>
       </c>
       <c r="AS4">
-        <v>0.8419909943327384</v>
+        <v>0.1599080641047582</v>
       </c>
       <c r="AT4">
-        <v>0.8420642382223005</v>
+        <v>0.1489583836387187</v>
       </c>
       <c r="AU4">
-        <v>0.8420948984875023</v>
+        <v>0.1400979536009385</v>
       </c>
       <c r="AV4">
-        <v>0.7426956767356024</v>
+        <v>0.1197556360756272</v>
       </c>
       <c r="AW4">
-        <v>0.7166123364184187</v>
+        <v>0.1133314403144534</v>
       </c>
       <c r="AX4">
-        <v>0.7121652500079693</v>
+        <v>0.1051632758602975</v>
       </c>
       <c r="AY4">
-        <v>0.7052994290989344</v>
+        <v>0.08353396957660474</v>
       </c>
       <c r="AZ4">
-        <v>0.6959557765059456</v>
+        <v>0.05026550019543611</v>
       </c>
       <c r="BA4">
-        <v>0.6841504318113589</v>
+        <v>0.03264695737408845</v>
       </c>
       <c r="BB4">
-        <v>0.6858946541874622</v>
+        <v>0.03367609837064933</v>
       </c>
       <c r="BC4">
-        <v>0.6712787360827667</v>
+        <v>0.03401249534445204</v>
       </c>
       <c r="BD4">
-        <v>0.656199800125527</v>
+        <v>0.03097735483063323</v>
       </c>
       <c r="BE4">
-        <v>0.6423898594542028</v>
+        <v>0.02603791673553989</v>
       </c>
       <c r="BF4">
-        <v>0.6319537223192208</v>
+        <v>0.02719279086492933</v>
       </c>
       <c r="BG4">
-        <v>0.6473763727753248</v>
+        <v>0.03821435258486669</v>
       </c>
       <c r="BH4">
-        <v>0.6480289397284047</v>
+        <v>0.05490233371617569</v>
       </c>
       <c r="BI4">
-        <v>0.6536682156386336</v>
+        <v>0.07724589827761037</v>
       </c>
       <c r="BJ4">
-        <v>0.6627954171557715</v>
+        <v>0.1028322052979445</v>
       </c>
       <c r="BK4">
-        <v>0.6736853897245836</v>
+        <v>0.1292923454821437</v>
       </c>
       <c r="BL4">
-        <v>0.6989276417869471</v>
+        <v>0.1574951424937469</v>
       </c>
       <c r="BM4">
-        <v>0.7088078535488515</v>
+        <v>0.1753780283049214</v>
       </c>
       <c r="BN4">
-        <v>0.7176361679586511</v>
+        <v>0.1793683247915381</v>
       </c>
       <c r="BO4">
-        <v>0.7252151067359047</v>
+        <v>0.1719667957580493</v>
       </c>
       <c r="BP4">
-        <v>0.7315041116622575</v>
+        <v>0.1608037675938606</v>
       </c>
       <c r="BQ4">
-        <v>0.7443983698227983</v>
+        <v>0.1513539580075901</v>
       </c>
       <c r="BR4">
-        <v>0.7480095371455292</v>
+        <v>0.141180644548738</v>
       </c>
       <c r="BS4">
-        <v>0.7505896756117933</v>
+        <v>0.1322682678215387</v>
       </c>
       <c r="BT4">
-        <v>0.7522098993503218</v>
+        <v>0.1232232676824779</v>
       </c>
       <c r="BU4">
-        <v>0.7529320182365606</v>
+        <v>0.1102200156350761</v>
       </c>
       <c r="BV4">
-        <v>0.7600447155526818</v>
+        <v>0.08985362588586931</v>
       </c>
       <c r="BW4">
-        <v>0.7591942117437745</v>
+        <v>0.06643135210723568</v>
       </c>
       <c r="BX4">
-        <v>0.7576658966057142</v>
+        <v>0.05148754672259013</v>
       </c>
       <c r="BY4">
-        <v>0.7555388699024829</v>
+        <v>0.04560069526598976</v>
       </c>
       <c r="BZ4">
-        <v>0.7529282456899627</v>
+        <v>0.04337205480064819</v>
       </c>
       <c r="CA4">
-        <v>0.7585563567797443</v>
+        <v>0.04224612699233483</v>
       </c>
       <c r="CB4">
-        <v>0.7557634048987798</v>
+        <v>0.04220558177981799</v>
       </c>
       <c r="CC4">
-        <v>0.7531160889854314</v>
+        <v>0.04609659757987533</v>
       </c>
       <c r="CD4">
-        <v>0.7508750081392709</v>
+        <v>0.05538061979794088</v>
       </c>
       <c r="CE4">
-        <v>0.749278708666953</v>
+        <v>0.07052344641216693</v>
       </c>
       <c r="CF4">
-        <v>0.7594060471419544</v>
+        <v>0.09202269206457808</v>
       </c>
       <c r="CG4">
-        <v>0.7594933482235341</v>
+        <v>0.1156522712728227</v>
       </c>
       <c r="CH4">
-        <v>0.7603348675900123</v>
+        <v>0.1397855154565749</v>
       </c>
       <c r="CI4">
-        <v>0.7618055383454739</v>
+        <v>0.1609344314399477</v>
       </c>
       <c r="CJ4">
-        <v>0.7637280381371176</v>
+        <v>0.1754654342258703</v>
       </c>
       <c r="CK4">
-        <v>0.7802270573716714</v>
+        <v>0.1842323390426225</v>
       </c>
       <c r="CL4">
-        <v>0.7820995564820131</v>
+        <v>0.181218463787839</v>
       </c>
       <c r="CM4">
-        <v>0.7839131886050331</v>
+        <v>0.1733849072477681</v>
       </c>
       <c r="CN4">
-        <v>0.7855755179193382</v>
+        <v>0.1637050681453418</v>
       </c>
       <c r="CO4">
-        <v>0.7870236009951943</v>
+        <v>0.153525343116502</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -1511,274 +1511,274 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>8.844891497984248E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0002679888875307821</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.00103124053400358</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.003048327417373501</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.004807867138024885</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.01158147280287167</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02385409218060737</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.03094313486793351</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.02528161180472178</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.04385446060780718</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.05243924485791565</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.05297131979612001</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.01188999250950219</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.01601118959805119</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.02104325006753478</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.008658797009685231</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.01093599900030898</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.01353078011043467</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.01641571590305021</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.01955111404782656</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0239469305253684</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.02761878940713168</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.03146567212304131</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0355409667295209</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.03998711368392166</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.2207435134892757</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.243580071132541</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.2705303300358568</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.3026300183296148</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.340212374006589</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.8526435615370892</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.8544939645632702</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.8560285797655184</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.8572607502178764</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.8582280015496832</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.8589763879039384</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.8595510964935869</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.8599887160891789</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.8603190319598115</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.8605664219053581</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.8607459923204344</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.8608692680608517</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.8609441541511086</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.8609755018498849</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.7593476508974072</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.7326794962038636</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.7281327017025747</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.7211129422747653</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.71155979571752</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.6994897634786492</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.7012730930514814</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.6863294715572895</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.6709124508907764</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.6567928776439059</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.6461227519569985</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.6618911935425599</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.6625583916943691</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.6683241057672124</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.6776559482006692</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.6887900847622426</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.7145982931675539</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.7247000290827909</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.7337262830633314</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.7414751491697</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.7479051598280334</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.7610885200534581</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.7647806533314728</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.767418641062813</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.7690751918255528</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.7698135013338888</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.7770856723828442</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.7762160994344576</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.7746535179542231</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.7724788012013346</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.7698096442030522</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.7755639431290934</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.7727083704950881</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.7700016991316309</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.7677103710287351</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.7660782809379982</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.776432684392501</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.7765219428509716</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.7773823299168129</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.7788859745701815</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.7808515787151415</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.7977205223354094</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.7996350047341697</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.8014893002893294</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.8031889006766423</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.8046694512122112</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2635,274 +2635,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>4.325464540978175E-05</v>
+        <v>1.726635602513577E-09</v>
       </c>
       <c r="E4">
-        <v>0.0001310560373242289</v>
+        <v>2.298236211158685E-08</v>
       </c>
       <c r="F4">
-        <v>0.0005043130672667786</v>
+        <v>3.332768076588338E-07</v>
       </c>
       <c r="G4">
-        <v>0.001490739839714632</v>
+        <v>3.258559592627156E-06</v>
       </c>
       <c r="H4">
-        <v>0.002351216945938564</v>
+        <v>1.526653637318666E-05</v>
       </c>
       <c r="I4">
-        <v>0.005663749483938122</v>
+        <v>0.0001002579131895771</v>
       </c>
       <c r="J4">
-        <v>0.01166549399584879</v>
+        <v>0.0005260519123617435</v>
       </c>
       <c r="K4">
-        <v>0.01513228631322028</v>
+        <v>0.001645917299504736</v>
       </c>
       <c r="L4">
-        <v>0.01236360151575342</v>
+        <v>0.00309734718489097</v>
       </c>
       <c r="M4">
-        <v>0.02144638060375296</v>
+        <v>0.01185559059000383</v>
       </c>
       <c r="N4">
-        <v>0.02564464313038811</v>
+        <v>0.02980547216926144</v>
       </c>
       <c r="O4">
-        <v>0.02590484629827616</v>
+        <v>0.05883966911030451</v>
       </c>
       <c r="P4">
-        <v>0.005814626476519269</v>
+        <v>0.02247862382848878</v>
       </c>
       <c r="Q4">
-        <v>0.007830037413641775</v>
+        <v>0.03952931023619209</v>
       </c>
       <c r="R4">
-        <v>0.01029089271929399</v>
+        <v>0.04682887881821144</v>
       </c>
       <c r="S4">
-        <v>0.004234457719799595</v>
+        <v>0.01414300056077322</v>
       </c>
       <c r="T4">
-        <v>0.005348089959114821</v>
+        <v>0.01407017909298795</v>
       </c>
       <c r="U4">
-        <v>0.006617029604337081</v>
+        <v>0.01486419669379194</v>
       </c>
       <c r="V4">
-        <v>0.008027865136042563</v>
+        <v>0.01574664745387863</v>
       </c>
       <c r="W4">
-        <v>0.009561185602414967</v>
+        <v>0.01638975554147057</v>
       </c>
       <c r="X4">
-        <v>0.01171089515229291</v>
+        <v>0.01782797978111474</v>
       </c>
       <c r="Y4">
-        <v>0.01350656385210326</v>
+        <v>0.01914266757427496</v>
       </c>
       <c r="Z4">
-        <v>0.01538782538828006</v>
+        <v>0.01916228465689697</v>
       </c>
       <c r="AA4">
-        <v>0.01738078840108254</v>
+        <v>0.01880534956074378</v>
       </c>
       <c r="AB4">
-        <v>0.01955511129171311</v>
+        <v>0.01908063506069951</v>
       </c>
       <c r="AC4">
-        <v>0.1079513634790656</v>
+        <v>0.09332114623999456</v>
       </c>
       <c r="AD4">
-        <v>0.1191192437909531</v>
+        <v>0.09360095684477737</v>
       </c>
       <c r="AE4">
-        <v>0.1322988685573144</v>
+        <v>0.09295555417421827</v>
       </c>
       <c r="AF4">
-        <v>0.147996745999901</v>
+        <v>0.08620977440016582</v>
       </c>
       <c r="AG4">
-        <v>0.166375840667388</v>
+        <v>0.07439443686260346</v>
       </c>
       <c r="AH4">
-        <v>0.4169726312581642</v>
+        <v>0.1392271905369303</v>
       </c>
       <c r="AI4">
-        <v>0.4178775486421949</v>
+        <v>0.1187537289956049</v>
       </c>
       <c r="AJ4">
-        <v>0.4186280312951758</v>
+        <v>0.1190302022061234</v>
       </c>
       <c r="AK4">
-        <v>0.4192306039646642</v>
+        <v>0.1415748399781813</v>
       </c>
       <c r="AL4">
-        <v>0.4197036172799118</v>
+        <v>0.1840643615890978</v>
       </c>
       <c r="AM4">
-        <v>0.4200695965747488</v>
+        <v>0.2294309396063886</v>
       </c>
       <c r="AN4">
-        <v>0.4203506431073982</v>
+        <v>0.2646068010109822</v>
       </c>
       <c r="AO4">
-        <v>0.4205646459075288</v>
+        <v>0.3139591283978691</v>
       </c>
       <c r="AP4">
-        <v>0.4207261719827616</v>
+        <v>0.3717353925031027</v>
       </c>
       <c r="AQ4">
-        <v>0.4208471535155432</v>
+        <v>0.3761335955739321</v>
       </c>
       <c r="AR4">
-        <v>0.4209349748507897</v>
+        <v>0.3458647441764283</v>
       </c>
       <c r="AS4">
-        <v>0.4209952653892328</v>
+        <v>0.3198161282095164</v>
       </c>
       <c r="AT4">
-        <v>0.4210318909852227</v>
+        <v>0.2979167672774373</v>
       </c>
       <c r="AU4">
-        <v>0.4210472240740365</v>
+        <v>0.2801959072018771</v>
       </c>
       <c r="AV4">
-        <v>0.3713476643130925</v>
+        <v>0.2395112721512543</v>
       </c>
       <c r="AW4">
-        <v>0.3583060067361331</v>
+        <v>0.2266628806289067</v>
       </c>
       <c r="AX4">
-        <v>0.3560824675522963</v>
+        <v>0.210326551720595</v>
       </c>
       <c r="AY4">
-        <v>0.3526495657896676</v>
+        <v>0.1670679391532095</v>
       </c>
       <c r="AZ4">
-        <v>0.3479777521672305</v>
+        <v>0.1005310003908722</v>
       </c>
       <c r="BA4">
-        <v>0.342075088697718</v>
+        <v>0.0652939147481769</v>
       </c>
       <c r="BB4">
-        <v>0.3429471986762473</v>
+        <v>0.06735219674129864</v>
       </c>
       <c r="BC4">
-        <v>0.3356392446172644</v>
+        <v>0.06802499068890408</v>
       </c>
       <c r="BD4">
-        <v>0.3280997827173244</v>
+        <v>0.06195470966126644</v>
       </c>
       <c r="BE4">
-        <v>0.3211948184531592</v>
+        <v>0.05207583347107978</v>
       </c>
       <c r="BF4">
-        <v>0.3159767532857811</v>
+        <v>0.05438558172985865</v>
       </c>
       <c r="BG4">
-        <v>0.3236880708762685</v>
+        <v>0.07642870516973337</v>
       </c>
       <c r="BH4">
-        <v>0.3240143501906281</v>
+        <v>0.1098046674323514</v>
       </c>
       <c r="BI4">
-        <v>0.326833980551079</v>
+        <v>0.1544917965552207</v>
       </c>
       <c r="BJ4">
-        <v>0.331397571245576</v>
+        <v>0.2056644105958891</v>
       </c>
       <c r="BK4">
-        <v>0.3368425462312625</v>
+        <v>0.2585846909642874</v>
       </c>
       <c r="BL4">
-        <v>0.3494636542947613</v>
+        <v>0.3149902849874938</v>
       </c>
       <c r="BM4">
-        <v>0.3544037509201555</v>
+        <v>0.3507560566098428</v>
       </c>
       <c r="BN4">
-        <v>0.3588179031726446</v>
+        <v>0.3587366495830763</v>
       </c>
       <c r="BO4">
-        <v>0.3626073714269167</v>
+        <v>0.3439335915160985</v>
       </c>
       <c r="BP4">
-        <v>0.3657518744309818</v>
+        <v>0.3216075351877211</v>
       </c>
       <c r="BQ4">
-        <v>0.3721990007092967</v>
+        <v>0.3027079160151802</v>
       </c>
       <c r="BR4">
-        <v>0.3740045858139717</v>
+        <v>0.282361289097476</v>
       </c>
       <c r="BS4">
-        <v>0.3752946565469392</v>
+        <v>0.2645365356430773</v>
       </c>
       <c r="BT4">
-        <v>0.3761047703405879</v>
+        <v>0.2464465353649558</v>
       </c>
       <c r="BU4">
-        <v>0.3764658332535573</v>
+        <v>0.2204400312701522</v>
       </c>
       <c r="BV4">
-        <v>0.3800221849247704</v>
+        <v>0.1797072517717386</v>
       </c>
       <c r="BW4">
-        <v>0.37959694032301</v>
+        <v>0.1328627042144714</v>
       </c>
       <c r="BX4">
-        <v>0.3788327877468916</v>
+        <v>0.1029750934451803</v>
       </c>
       <c r="BY4">
-        <v>0.3777692769276617</v>
+        <v>0.09120139053197952</v>
       </c>
       <c r="BZ4">
-        <v>0.3764639665336635</v>
+        <v>0.08674410960129635</v>
       </c>
       <c r="CA4">
-        <v>0.3792780202689737</v>
+        <v>0.0844922539846697</v>
       </c>
       <c r="CB4">
-        <v>0.3778815456236974</v>
+        <v>0.08441116355963602</v>
       </c>
       <c r="CC4">
-        <v>0.3765578877720654</v>
+        <v>0.09219319515975066</v>
       </c>
       <c r="CD4">
-        <v>0.3754373457021358</v>
+        <v>0.1107612395958818</v>
       </c>
       <c r="CE4">
-        <v>0.3746391922756823</v>
+        <v>0.1410468928243339</v>
       </c>
       <c r="CF4">
-        <v>0.3797028509755481</v>
+        <v>0.1840453841291561</v>
       </c>
       <c r="CG4">
-        <v>0.3797464943083724</v>
+        <v>0.2313045425456454</v>
       </c>
       <c r="CH4">
-        <v>0.3801672462382322</v>
+        <v>0.2795710309131498</v>
       </c>
       <c r="CI4">
-        <v>0.3809025744605004</v>
+        <v>0.3218688628798954</v>
       </c>
       <c r="CJ4">
-        <v>0.3818638190035962</v>
+        <v>0.3509308684517405</v>
       </c>
       <c r="CK4">
-        <v>0.390113318299641</v>
+        <v>0.3684646780852448</v>
       </c>
       <c r="CL4">
-        <v>0.3910495679126358</v>
+        <v>0.3624369275756781</v>
       </c>
       <c r="CM4">
-        <v>0.3919563855731767</v>
+        <v>0.3467698144955362</v>
       </c>
       <c r="CN4">
-        <v>0.3927875524732908</v>
+        <v>0.3274101362906838</v>
       </c>
       <c r="CO4">
-        <v>0.3935115964950929</v>
+        <v>0.3070506862330039</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -2912,274 +2912,274 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>4.422445748800411E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0001339944437477908</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0005156202667411286</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.001524163706407932</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.002403933563335148</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.005790736368364339</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.01192704594867201</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.015471567190422</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.01264080573201071</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.02192722974138037</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.02621962148043437</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.02648565866158547</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.00594499617285724</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.008005594623387518</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.01052162474727184</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.004329398464371158</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.005467999443717747</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.006765389975146866</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.008207857839658939</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.00977555687263351</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.01197346504410205</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.01380939441827613</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.01573283570515474</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.01777048292662325</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.01999355629437165</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.1103717401847522</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.1217900154568111</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.1352651404905718</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.1513149799248023</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.1701061521350931</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.4263215714760598</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.427246778005927</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.4280140872248054</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.4286301701715676</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.4291137889147861</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.4294879738286299</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.4297753217034663</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.4299941226587631</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.4301592703089097</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.4302829643677243</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.4303727547444656</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.430434397056616</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.4304718438348171</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.4304875207066996</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.3796736474915153</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.3663395830084689</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.3640661898693761</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.3605563190422405</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.3557797587218404</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.3497447516792345</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.3506364152290094</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.3431646095872346</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.335456105468948</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.3283963250531384</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.3230612656860315</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.3309454786700059</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.3312790734904099</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.3341619227618882</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.3388278336888979</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.3443948904176368</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.3572989762497561</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.3623498347442978</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.3668629566711194</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.3707373885645157</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.3739523944466982</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.3805440716946327</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.3823901398093102</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.383709135208443</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.3845374125573443</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.3849065708591596</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.3885426594643476</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.3881078804565815</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.387326594821322</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.3862392390340419</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.3849046622855532</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.3877818098984209</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.386354024905664</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.3850006893313325</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.3838550235961115</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.3830389747777084</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.3882161657310604</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.3882607875907206</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.3886909731964235</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.3894427882072126</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.3904255848069531</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.3988600460644428</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.3998172873229431</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.4007444367354059</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.4015942392223131</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.4023345170296628</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4036,274 +4036,274 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>4.325464540936348E-05</v>
+        <v>8.633178012567886E-10</v>
       </c>
       <c r="E4">
-        <v>0.000131056037320389</v>
+        <v>1.149118105579343E-08</v>
       </c>
       <c r="F4">
-        <v>0.0005043130672099188</v>
+        <v>1.666384038294169E-07</v>
       </c>
       <c r="G4">
-        <v>0.001490739839217802</v>
+        <v>1.629279796313578E-06</v>
       </c>
       <c r="H4">
-        <v>0.002351216944702644</v>
+        <v>7.633268186593329E-06</v>
       </c>
       <c r="I4">
-        <v>0.005663749476766559</v>
+        <v>5.012895659478855E-05</v>
       </c>
       <c r="J4">
-        <v>0.01166549396542494</v>
+        <v>0.0002630259561808717</v>
       </c>
       <c r="K4">
-        <v>0.01513228626202598</v>
+        <v>0.0008229586497523678</v>
       </c>
       <c r="L4">
-        <v>0.01236360148157798</v>
+        <v>0.001548673592445485</v>
       </c>
       <c r="M4">
-        <v>0.02144638050091397</v>
+        <v>0.005927795295001914</v>
       </c>
       <c r="N4">
-        <v>0.02564464298332681</v>
+        <v>0.01490273608463072</v>
       </c>
       <c r="O4">
-        <v>0.02590484614817705</v>
+        <v>0.02941983455515225</v>
       </c>
       <c r="P4">
-        <v>0.005814626468953444</v>
+        <v>0.01123931191424439</v>
       </c>
       <c r="Q4">
-        <v>0.007830037399914022</v>
+        <v>0.01976465511809605</v>
       </c>
       <c r="R4">
-        <v>0.01029089269557435</v>
+        <v>0.02341443940910572</v>
       </c>
       <c r="S4">
-        <v>0.004234457715785609</v>
+        <v>0.007071500280386613</v>
       </c>
       <c r="T4">
-        <v>0.005348089952716636</v>
+        <v>0.007035089546493973</v>
       </c>
       <c r="U4">
-        <v>0.006617029594544518</v>
+        <v>0.007432098346895968</v>
       </c>
       <c r="V4">
-        <v>0.008027865121627053</v>
+        <v>0.007873323726939314</v>
       </c>
       <c r="W4">
-        <v>0.009561185581964523</v>
+        <v>0.008194877770735283</v>
       </c>
       <c r="X4">
-        <v>0.01171089512160881</v>
+        <v>0.008913989890557368</v>
       </c>
       <c r="Y4">
-        <v>0.01350656381128228</v>
+        <v>0.009571333787137482</v>
       </c>
       <c r="Z4">
-        <v>0.01538782533529422</v>
+        <v>0.009581142328448483</v>
       </c>
       <c r="AA4">
-        <v>0.01738078833347952</v>
+        <v>0.00940267478037189</v>
       </c>
       <c r="AB4">
-        <v>0.01955511120610497</v>
+        <v>0.009540317530349755</v>
       </c>
       <c r="AC4">
-        <v>0.1079513608687089</v>
+        <v>0.04666057311999727</v>
       </c>
       <c r="AD4">
-        <v>0.1191192406110151</v>
+        <v>0.04680047842238869</v>
       </c>
       <c r="AE4">
-        <v>0.132298864633717</v>
+        <v>0.04647777708710914</v>
       </c>
       <c r="AF4">
-        <v>0.1479967410924079</v>
+        <v>0.04310488720008291</v>
       </c>
       <c r="AG4">
-        <v>0.1663758344688896</v>
+        <v>0.03719721843130173</v>
       </c>
       <c r="AH4">
-        <v>0.4169725923378937</v>
+        <v>0.06961359526846515</v>
       </c>
       <c r="AI4">
-        <v>0.4178775095660924</v>
+        <v>0.05937686449780247</v>
       </c>
       <c r="AJ4">
-        <v>0.4186279920894413</v>
+        <v>0.05951510110306168</v>
       </c>
       <c r="AK4">
-        <v>0.4192305646532625</v>
+        <v>0.07078741998909063</v>
       </c>
       <c r="AL4">
-        <v>0.4197035778786133</v>
+        <v>0.09203218079454889</v>
       </c>
       <c r="AM4">
-        <v>0.4200695570989462</v>
+        <v>0.1147154698031943</v>
       </c>
       <c r="AN4">
-        <v>0.4203506035742642</v>
+        <v>0.1323034005054911</v>
       </c>
       <c r="AO4">
-        <v>0.4205646063278199</v>
+        <v>0.1569795641989346</v>
       </c>
       <c r="AP4">
-        <v>0.4207261323651912</v>
+        <v>0.1858676962515513</v>
       </c>
       <c r="AQ4">
-        <v>0.4208471138745369</v>
+        <v>0.188066797786966</v>
       </c>
       <c r="AR4">
-        <v>0.4209349351969373</v>
+        <v>0.1729323720882141</v>
       </c>
       <c r="AS4">
-        <v>0.4209952257270947</v>
+        <v>0.1599080641047582</v>
       </c>
       <c r="AT4">
-        <v>0.4210318513186924</v>
+        <v>0.1489583836387187</v>
       </c>
       <c r="AU4">
-        <v>0.4210471844065873</v>
+        <v>0.1400979536009385</v>
       </c>
       <c r="AV4">
-        <v>0.371347633458092</v>
+        <v>0.1197556360756272</v>
       </c>
       <c r="AW4">
-        <v>0.3583059780104464</v>
+        <v>0.1133314403144534</v>
       </c>
       <c r="AX4">
-        <v>0.3560824391829936</v>
+        <v>0.1051632758602975</v>
       </c>
       <c r="AY4">
-        <v>0.3526495379680087</v>
+        <v>0.08353396957660474</v>
       </c>
       <c r="AZ4">
-        <v>0.3479777250830211</v>
+        <v>0.05026550019543611</v>
       </c>
       <c r="BA4">
-        <v>0.3420750625263334</v>
+        <v>0.03264695737408845</v>
       </c>
       <c r="BB4">
-        <v>0.3429471723696574</v>
+        <v>0.03367609837064933</v>
       </c>
       <c r="BC4">
-        <v>0.3356392194190351</v>
+        <v>0.03401249534445204</v>
       </c>
       <c r="BD4">
-        <v>0.328099758638841</v>
+        <v>0.03097735483063323</v>
       </c>
       <c r="BE4">
-        <v>0.3211947953786284</v>
+        <v>0.02603791673553989</v>
       </c>
       <c r="BF4">
-        <v>0.3159767309556168</v>
+        <v>0.02719279086492933</v>
       </c>
       <c r="BG4">
-        <v>0.3236880474428137</v>
+        <v>0.03821435258486669</v>
       </c>
       <c r="BH4">
-        <v>0.3240143267087839</v>
+        <v>0.05490233371617569</v>
       </c>
       <c r="BI4">
-        <v>0.3268339566558837</v>
+        <v>0.07724589827761037</v>
       </c>
       <c r="BJ4">
-        <v>0.331397546674056</v>
+        <v>0.1028322052979445</v>
       </c>
       <c r="BK4">
-        <v>0.3368425208407798</v>
+        <v>0.1292923454821437</v>
       </c>
       <c r="BL4">
-        <v>0.3494636269610541</v>
+        <v>0.1574951424937469</v>
       </c>
       <c r="BM4">
-        <v>0.3544037228048286</v>
+        <v>0.1753780283049214</v>
       </c>
       <c r="BN4">
-        <v>0.358817874352119</v>
+        <v>0.1793683247915381</v>
       </c>
       <c r="BO4">
-        <v>0.362607341996306</v>
+        <v>0.1719667957580493</v>
       </c>
       <c r="BP4">
-        <v>0.3657518444902749</v>
+        <v>0.1608037675938606</v>
       </c>
       <c r="BQ4">
-        <v>0.3721989697062066</v>
+        <v>0.1513539580075901</v>
       </c>
       <c r="BR4">
-        <v>0.3740045545114398</v>
+        <v>0.141180644548738</v>
       </c>
       <c r="BS4">
-        <v>0.375294625029732</v>
+        <v>0.1322682678215387</v>
       </c>
       <c r="BT4">
-        <v>0.3761047386886114</v>
+        <v>0.1232232676824779</v>
       </c>
       <c r="BU4">
-        <v>0.3764658015428248</v>
+        <v>0.1102200156350761</v>
       </c>
       <c r="BV4">
-        <v>0.380022152615782</v>
+        <v>0.08985362588586931</v>
       </c>
       <c r="BW4">
-        <v>0.3795969080903314</v>
+        <v>0.06643135210723568</v>
       </c>
       <c r="BX4">
-        <v>0.3788327556461538</v>
+        <v>0.05148754672259013</v>
       </c>
       <c r="BY4">
-        <v>0.3777692450076031</v>
+        <v>0.04560069526598976</v>
       </c>
       <c r="BZ4">
-        <v>0.3764639348342283</v>
+        <v>0.04337205480064819</v>
       </c>
       <c r="CA4">
-        <v>0.3792779880946139</v>
+        <v>0.04224612699233483</v>
       </c>
       <c r="CB4">
-        <v>0.3778815136865931</v>
+        <v>0.04220558177981799</v>
       </c>
       <c r="CC4">
-        <v>0.3765578560585384</v>
+        <v>0.04609659757987533</v>
       </c>
       <c r="CD4">
-        <v>0.3754373141763252</v>
+        <v>0.05538061979794088</v>
       </c>
       <c r="CE4">
-        <v>0.3746391608816477</v>
+        <v>0.07052344641216693</v>
       </c>
       <c r="CF4">
-        <v>0.3797028187234131</v>
+        <v>0.09202269206457808</v>
       </c>
       <c r="CG4">
-        <v>0.3797464620439692</v>
+        <v>0.1156522712728227</v>
       </c>
       <c r="CH4">
-        <v>0.3801672138970666</v>
+        <v>0.1397855154565749</v>
       </c>
       <c r="CI4">
-        <v>0.3809025419894555</v>
+        <v>0.1609344314399477</v>
       </c>
       <c r="CJ4">
-        <v>0.3818637863652657</v>
+        <v>0.1754654342258703</v>
       </c>
       <c r="CK4">
-        <v>0.3901132842346883</v>
+        <v>0.1842323390426225</v>
       </c>
       <c r="CL4">
-        <v>0.3910495336846578</v>
+        <v>0.181218463787839</v>
       </c>
       <c r="CM4">
-        <v>0.391956351187974</v>
+        <v>0.1733849072477681</v>
       </c>
       <c r="CN4">
-        <v>0.39278751794412</v>
+        <v>0.1637050681453418</v>
       </c>
       <c r="CO4">
-        <v>0.3935115618405007</v>
+        <v>0.153525343116502</v>
       </c>
     </row>
     <row r="5" spans="1:93">
@@ -4313,274 +4313,274 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>8.844891497515286E-07</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>2.679888874877298E-06</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.031240533365988E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>3.048327411799924E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>4.807867124143031E-05</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0001158147272206396</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0002385409183513207</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0003094313427615972</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0002528161139413806</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0004385445927247126</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0005243924266015164</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0005297131701624198</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0001188999233024356</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0001601118921870394</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0002104324944604077</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>8.658796920534347E-05</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0001093599887435222</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0001353077993026948</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0001641571564984044</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.000195511137034491</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0002394693002545998</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.0002761878875307981</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.000314656713019618</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0003554096571500904</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0003998711241368819</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.002207434750317374</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.002435800244111515</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.002705302729580068</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.003026299498145566</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.003402122915952367</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.008526430633663163</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.008544934761073991</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.008560280942800785</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.00857260259957531</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.008582274972601426</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.008589758669354811</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.008595505625679208</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.008599881643832762</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.00860318459606148</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.008605658476758548</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.008607454284030692</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.008608687130104268</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.008609436065578478</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.008609749602997336</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.007593472318894304</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.007326791072774475</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.00728132321728011</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.007211125811935848</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.007115594620607525</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.00699489449842123</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.00701272776665199</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.006863291676480717</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.006709121617012024</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.006567926029225079</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.006461224857104058</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.006618909094222998</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.006625580989641585</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.006683237966618779</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.006776556171329203</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.006887897289157487</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.007145978966064003</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.007246996119971944</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.007337258544088181</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.00741474716948083</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.007479047276693816</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.007610880799928449</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.007647802156098891</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.007674182059691779</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.007690747603913981</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.007698130768748818</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.007770852528619194</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.007762156950024282</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.007746531240017078</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.00772478412796608</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.007698092597507704</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.007755635540053599</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.007727079845049958</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.007700013138135138</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.007677099827269218</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.00766077885359577</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.007764322655116012</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.007765215092058346</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.007773818802602741</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.007788855100162696</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.007808511028736783</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.007977200224714405</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.007996345046550796</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.008014888031585057</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.008031884078379285</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.008046689631961604</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
